--- a/tests/expected_results/result_test_write_results_dofinance_missing_month.xlsx
+++ b/tests/expected_results/result_test_write_results_dofinance_missing_month.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tagesergebnisse" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">Datum</t>
   </si>
   <si>
-    <t xml:space="preserve">Auszahlungen</t>
+    <t xml:space="preserve">Ein-/Auszahlungen</t>
   </si>
   <si>
     <t xml:space="preserve">Investitionen</t>
@@ -204,16 +204,16 @@
   </sheetPr>
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
@@ -2628,14 +2628,14 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
@@ -2827,15 +2827,15 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.29"/>
@@ -2843,7 +2843,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>183.02</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
